--- a/medicine/Psychotrope/Longmorn/Longmorn.xlsx
+++ b/medicine/Psychotrope/Longmorn/Longmorn.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Longmorn est une distillerie de whisky du Speyside située à Elgin dans le Morayshire en Écosse. Elle appartient aujourd’hui au groupe Pernod Ricard
@@ -512,7 +524,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La distillerie a été créée en 1894 par John Duff en même temps que sa proche voisine Benriach. Duff était très connu dans le petit monde du whisky : il avait fondé une vingtaine d’années auparavant la distillerie Glenlossie. À la suite de sa faillite personnelle, Duff vendit à la fin du XIXe siècle toutes ses propriétés. C’est John Grant, propriétaire de Glen Grant, qui rachète Longmorn.
 En 1970, la distillerie fusionne avec Glen Grant et Glenlivet pour former un géant du whisky écossais, le groupe The Glenlivet Distillers Ltd.
@@ -549,7 +563,9 @@
           <t>Whiskies</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Embouteillage officiel : 
 Longmorn 15 ans 45 %
